--- a/data/downstream/pooled_box_to_composite.xlsx
+++ b/data/downstream/pooled_box_to_composite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_Projects\stool\data\downstream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC685A93-AB33-4498-8728-ABB73C10F82A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A64A9D-4086-4A6B-8E4B-87AB81934762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -282,6 +282,72 @@
   </si>
   <si>
     <t>Mod_inactive</t>
+  </si>
+  <si>
+    <t>hsa-miR-1231</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>hsa-miR-622</t>
+  </si>
+  <si>
+    <t>hsa-miR-8053</t>
+  </si>
+  <si>
+    <t>hsa-miR-3169-3p:Novel</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>hsa-miR-320c</t>
+  </si>
+  <si>
+    <t>hsa-miR-320d</t>
+  </si>
+  <si>
+    <t>hsa-miR-4254-5p:Novel</t>
+  </si>
+  <si>
+    <t>hsa-miR-4453-3p:Novel</t>
+  </si>
+  <si>
+    <t>hsa-miR-483-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-638-3p:Novel</t>
+  </si>
+  <si>
+    <t>hsa-miR-645</t>
+  </si>
+  <si>
+    <t>hsa-miR-6717-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-7113-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-8085</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>hsa-miR-3972</t>
+  </si>
+  <si>
+    <t>hsa-miR-4254</t>
+  </si>
+  <si>
+    <t>hsa-miR-6895-3p</t>
   </si>
 </sst>
 </file>
@@ -371,7 +437,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,12 +457,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -406,17 +466,41 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -424,7 +508,48 @@
     <cellStyle name="Normale 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normale 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -758,71 +883,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F65" sqref="A1:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="26.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="10">
         <v>2E-3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="12">
         <v>1.27</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="10">
@@ -833,16 +959,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="10">
@@ -853,16 +979,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="10">
@@ -873,16 +999,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="10">
@@ -894,16 +1020,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="10">
@@ -914,16 +1040,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="10">
@@ -934,16 +1060,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="10">
@@ -954,16 +1080,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="10">
@@ -974,16 +1100,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="10">
@@ -994,16 +1120,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="10">
@@ -1014,16 +1140,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="10">
@@ -1034,16 +1160,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="10">
@@ -1054,16 +1180,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="10">
@@ -1074,16 +1200,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="10">
@@ -1094,16 +1220,16 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="10">
@@ -1114,16 +1240,16 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="10">
@@ -1134,16 +1260,16 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="10">
@@ -1154,16 +1280,16 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="10">
@@ -1174,16 +1300,16 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="10">
@@ -1194,16 +1320,16 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="10">
@@ -1214,16 +1340,16 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="10">
@@ -1234,36 +1360,36 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="10">
         <v>8.6195344393774492E-3</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="12">
         <v>1.6319999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="10">
@@ -1274,16 +1400,16 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="10">
@@ -1294,16 +1420,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="10">
@@ -1312,21 +1438,21 @@
       <c r="F27" s="10">
         <v>-0.62192725568123597</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="10">
@@ -1337,16 +1463,16 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="10">
@@ -1357,19 +1483,19 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="12">
         <v>0.03</v>
       </c>
       <c r="F30" s="10">
@@ -1377,16 +1503,16 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="10">
@@ -1397,16 +1523,16 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E32" s="10">
@@ -1417,16 +1543,16 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="10">
@@ -1440,13 +1566,13 @@
       <c r="A34" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E34" s="10">
@@ -1460,13 +1586,13 @@
       <c r="A35" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E35" s="10">
@@ -1480,13 +1606,13 @@
       <c r="A36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E36" s="10">
@@ -1500,13 +1626,13 @@
       <c r="A37" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E37" s="10">
@@ -1520,13 +1646,13 @@
       <c r="A38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E38" s="10">
@@ -1540,13 +1666,13 @@
       <c r="A39" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E39" s="10">
@@ -1560,13 +1686,13 @@
       <c r="A40" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E40" s="10">
@@ -1580,13 +1706,13 @@
       <c r="A41" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E41" s="14">
@@ -1600,13 +1726,13 @@
       <c r="A42" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E42" s="10">
@@ -1620,13 +1746,13 @@
       <c r="A43" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E43" s="10">
@@ -1640,13 +1766,13 @@
       <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E44" s="10">
@@ -1660,13 +1786,13 @@
       <c r="A45" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E45" s="10">
@@ -1680,13 +1806,13 @@
       <c r="A46" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E46" s="10">
@@ -1700,13 +1826,13 @@
       <c r="A47" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E47" s="10">
@@ -1714,6 +1840,366 @@
       </c>
       <c r="F47" s="15">
         <v>1.23901819924083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="18">
+        <v>3.3374561868494898E-2</v>
+      </c>
+      <c r="F48" s="18">
+        <v>-0.53530787052621498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="18">
+        <v>2.3344024591834999E-2</v>
+      </c>
+      <c r="F49" s="18">
+        <v>-0.75548317084688799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="18">
+        <v>1.29893692326513E-2</v>
+      </c>
+      <c r="F50" s="18">
+        <v>-0.71489914902828799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="18">
+        <v>1.1591110604886E-3</v>
+      </c>
+      <c r="F51" s="18">
+        <v>-0.98078149314881402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="18">
+        <v>1.92409892226687E-3</v>
+      </c>
+      <c r="F52" s="18">
+        <v>-0.84712266109560197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="18">
+        <v>1.0502884008321701E-3</v>
+      </c>
+      <c r="F53" s="18">
+        <v>-0.91440967215047397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="18">
+        <v>3.2620619673087298E-2</v>
+      </c>
+      <c r="F54" s="18">
+        <v>-1.17715100369768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="18">
+        <v>2.3645845971453201E-2</v>
+      </c>
+      <c r="F55" s="18">
+        <v>-0.67875956555981698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="18">
+        <v>2.3645845971453201E-2</v>
+      </c>
+      <c r="F56" s="18">
+        <v>-0.83972149214354797</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="18">
+        <v>4.7963249212917801E-3</v>
+      </c>
+      <c r="F57" s="18">
+        <v>-0.95259967900864195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="18">
+        <v>2.3634448566251201E-2</v>
+      </c>
+      <c r="F58" s="18">
+        <v>-0.99028840774502103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="18">
+        <v>7.0272467555284397E-4</v>
+      </c>
+      <c r="F59" s="18">
+        <v>-1.0365218255599999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="18">
+        <v>4.7262460648273302E-2</v>
+      </c>
+      <c r="F60" s="18">
+        <v>-0.79378573794852403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="18">
+        <v>1.9751289555813099E-2</v>
+      </c>
+      <c r="F61" s="18">
+        <v>-0.69256649994889696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="18">
+        <v>3.3117781752951603E-2</v>
+      </c>
+      <c r="F62" s="19">
+        <v>-1.6459693115076099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="18">
+        <v>2.1977743974406799E-2</v>
+      </c>
+      <c r="F63" s="19">
+        <v>-1.1925234495284101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="18">
+        <v>1.8134151720978299E-2</v>
+      </c>
+      <c r="F64" s="19">
+        <v>-0.93260319876887499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="21">
+        <v>1.02127877413944E-2</v>
+      </c>
+      <c r="F65" s="21">
+        <v>1.33754918864681</v>
       </c>
     </row>
   </sheetData>
